--- a/src/doc/李陶然工作计划.xlsx
+++ b/src/doc/李陶然工作计划.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8205"/>
+    <workbookView windowWidth="23040" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划表（个人）" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -89,12 +76,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,6 +109,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -134,6 +150,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,14 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +218,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,57 +233,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +262,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,24 +328,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,18 +376,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,36 +388,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,24 +412,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,12 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +496,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -536,21 +539,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,152 +597,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,56 +760,59 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1018,7 +1009,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1027,7 +1018,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1300,16 +1291,16 @@
   <sheetPr/>
   <dimension ref="B1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="15.2477876106195" customWidth="1"/>
-    <col min="5" max="5" width="20.4513274336283" customWidth="1"/>
-    <col min="6" max="8" width="15.2477876106195" customWidth="1"/>
-    <col min="9" max="9" width="11.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="20.4537037037037" customWidth="1"/>
+    <col min="6" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="2:9">
@@ -1405,7 +1396,7 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>12.3</v>
       </c>
       <c r="G6" s="4"/>

--- a/src/doc/李陶然工作计划.xlsx
+++ b/src/doc/李陶然工作计划.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>工作计划表</t>
   </si>
@@ -65,22 +65,25 @@
     <t>计科2307</t>
   </si>
   <si>
-    <t>客观题自动评分</t>
-  </si>
-  <si>
-    <t>2天</t>
-  </si>
-  <si>
-    <t>试卷查询</t>
-  </si>
-  <si>
-    <t>个人考试成绩统计、分析</t>
-  </si>
-  <si>
-    <t>班级成绩统计、分析</t>
-  </si>
-  <si>
-    <t>1天</t>
+    <t>客观题自动评分的controller类、service类</t>
+  </si>
+  <si>
+    <t>客观题自动评分的entity类、接口（使用2.2功能的接口）</t>
+  </si>
+  <si>
+    <t>试卷查询的controller类、service类</t>
+  </si>
+  <si>
+    <t>试卷查询的entity类、接口（使用2.2功能的接口）</t>
+  </si>
+  <si>
+    <t>个人考试成绩统计、分析的controller类、service类</t>
+  </si>
+  <si>
+    <t>个人考试成绩统计、分析的entity类、接口（使用4.1功能的接口）</t>
+  </si>
+  <si>
+    <t>班级成绩统计、分析的controller类、service类、entity类、接口（使用4.1功能的接口）</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -501,19 +504,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,34 +642,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,15 +1298,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I91"/>
+  <dimension ref="B1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="8" width="15.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="15.2477876106195" customWidth="1"/>
+    <col min="5" max="5" width="20.4513274336283" customWidth="1"/>
+    <col min="6" max="8" width="15.2477876106195" customWidth="1"/>
     <col min="9" max="9" width="11.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="38" customHeight="1" spans="2:9">
+    <row r="3" ht="62" customHeight="1" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1374,95 +1363,98 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+      <c r="F3" s="4">
+        <v>12.25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="4" customFormat="1" ht="50" customHeight="1" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.28</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="5" customFormat="1" ht="63" customHeight="1" spans="2:9">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12.29</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="6" customFormat="1" ht="61" customHeight="1" spans="2:9">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12.3</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="7" customFormat="1" ht="67" customHeight="1" spans="2:9">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12.31</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="8" customFormat="1" ht="61" customHeight="1" spans="2:9">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.8</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="38" customHeight="1" spans="2:9">
+    <row r="9" customFormat="1" ht="72" customHeight="1" spans="2:9">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.9</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" customFormat="1" ht="38" customHeight="1" spans="2:9">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
+    <row r="10" ht="17.6" customHeight="1"/>
     <row r="11" ht="17.6" customHeight="1"/>
     <row r="12" ht="17.6" customHeight="1"/>
     <row r="13" ht="17.6" customHeight="1"/>
@@ -1543,13 +1535,12 @@
     <row r="88" ht="17.6" customHeight="1"/>
     <row r="89" ht="17.6" customHeight="1"/>
     <row r="90" ht="17.6" customHeight="1"/>
-    <row r="91" ht="17.6" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/doc/李陶然工作计划.xlsx
+++ b/src/doc/李陶然工作计划.xlsx
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="B1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
